--- a/數據整理/單別_Kai.xlsx
+++ b/數據整理/單別_Kai.xlsx
@@ -9,12 +9,15 @@
   <sheets>
     <sheet name="KAI" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">KAI!$A$1:$E$41</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="68">
   <si>
     <t>列業績</t>
   </si>
@@ -215,13 +218,17 @@
   </si>
   <si>
     <t>單據前3~5</t>
+  </si>
+  <si>
+    <t>不列業績</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -234,13 +241,26 @@
       <family val="3"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -257,8 +277,11 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -564,8 +587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.45" x14ac:dyDescent="0.2"/>
@@ -674,7 +697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="13.75" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>53</v>
       </c>
@@ -687,8 +710,8 @@
       <c r="D8" t="s">
         <v>8</v>
       </c>
-      <c r="E8" t="s">
-        <v>0</v>
+      <c r="E8" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -1187,6 +1210,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E41"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
